--- a/testData/session_configuration_test_data.xlsx
+++ b/testData/session_configuration_test_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,14 +160,34 @@
   </si>
   <si>
     <t>test-F07-S20_check_SingleUserLogin_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置密码策略2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败锁定时间4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,11 +299,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -325,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,9 +385,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,23 +596,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="2" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,29 +620,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -624,14 +660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" customWidth="1"/>
@@ -640,7 +676,7 @@
     <col min="5" max="5" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -674,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -705,7 +741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -720,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -737,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -762,14 +798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
@@ -778,7 +814,7 @@
     <col min="7" max="7" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +838,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -829,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
@@ -845,7 +881,7 @@
     <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +899,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -880,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -897,7 +933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
